--- a/build_fuels.xlsx
+++ b/build_fuels.xlsx
@@ -574,10 +574,10 @@
         <v>2025</v>
       </c>
       <c r="F7">
-        <v>0.000395003</v>
+        <v>0.000395001</v>
       </c>
       <c r="G7">
-        <v>0.08524805534722772</v>
+        <v>0.08524746403856107</v>
       </c>
     </row>
     <row r="8">
@@ -605,10 +605,10 @@
         <v>2030</v>
       </c>
       <c r="F8">
-        <v>0.000308977</v>
+        <v>0.000308971</v>
       </c>
       <c r="G8">
-        <v>0.04756524617228287</v>
+        <v>0.04756554365586629</v>
       </c>
     </row>
     <row r="9">
@@ -636,10 +636,10 @@
         <v>2035</v>
       </c>
       <c r="F9">
-        <v>0.000284791</v>
+        <v>0.000284775</v>
       </c>
       <c r="G9">
-        <v>0.03292542294200724</v>
+        <v>0.03292413050073806</v>
       </c>
     </row>
     <row r="10">
@@ -667,10 +667,10 @@
         <v>2040</v>
       </c>
       <c r="F10">
-        <v>0.000216433</v>
+        <v>0.000216389</v>
       </c>
       <c r="G10">
-        <v>0.01941238905176478</v>
+        <v>0.01940895302705513</v>
       </c>
     </row>
     <row r="11">
@@ -698,10 +698,10 @@
         <v>2045</v>
       </c>
       <c r="F11">
-        <v>0.000126934</v>
+        <v>0.000126917</v>
       </c>
       <c r="G11">
-        <v>0.009043026081091031</v>
+        <v>0.009042074781664885</v>
       </c>
     </row>
     <row r="12">
@@ -1008,10 +1008,10 @@
         <v>2025</v>
       </c>
       <c r="F21">
-        <v>0.05609812605</v>
+        <v>0.05609802405</v>
       </c>
       <c r="G21">
-        <v>12.10688565501061</v>
+        <v>12.10684096454619</v>
       </c>
     </row>
     <row r="22">
@@ -1039,10 +1039,10 @@
         <v>2030</v>
       </c>
       <c r="F22">
-        <v>0.07430205589</v>
+        <v>0.07430194089</v>
       </c>
       <c r="G22">
-        <v>11.43837754756688</v>
+        <v>11.4386535083192</v>
       </c>
     </row>
     <row r="23">
@@ -1070,10 +1070,10 @@
         <v>2035</v>
       </c>
       <c r="F23">
-        <v>0.09410709129</v>
+        <v>0.09410814929</v>
       </c>
       <c r="G23">
-        <v>10.87996384213453</v>
+        <v>10.88027034819384</v>
       </c>
     </row>
     <row r="24">
@@ -1101,10 +1101,10 @@
         <v>2040</v>
       </c>
       <c r="F24">
-        <v>0.11648790271</v>
+        <v>0.11649262271</v>
       </c>
       <c r="G24">
-        <v>10.44807625099058</v>
+        <v>10.44877439323092</v>
       </c>
     </row>
     <row r="25">
@@ -1132,10 +1132,10 @@
         <v>2045</v>
       </c>
       <c r="F25">
-        <v>0.14849947898</v>
+        <v>0.14850813838</v>
       </c>
       <c r="G25">
-        <v>10.57939292423283</v>
+        <v>10.58031385013668</v>
       </c>
     </row>
     <row r="26">
@@ -1163,10 +1163,10 @@
         <v>2050</v>
       </c>
       <c r="F26">
-        <v>0.1825727565</v>
+        <v>0.1825822792</v>
       </c>
       <c r="G26">
-        <v>10.79488652194122</v>
+        <v>10.79569029122408</v>
       </c>
     </row>
     <row r="27">
@@ -1194,10 +1194,10 @@
         <v>2055</v>
       </c>
       <c r="F27">
-        <v>0.2079717842</v>
+        <v>0.2079793273</v>
       </c>
       <c r="G27">
-        <v>10.73099040578967</v>
+        <v>10.73161376597601</v>
       </c>
     </row>
     <row r="28">
@@ -1225,10 +1225,10 @@
         <v>2060</v>
       </c>
       <c r="F28">
-        <v>0.2267952778</v>
+        <v>0.226835719</v>
       </c>
       <c r="G28">
-        <v>10.73287518497033</v>
+        <v>10.73528070965191</v>
       </c>
     </row>
     <row r="29">
@@ -1256,10 +1256,10 @@
         <v>2065</v>
       </c>
       <c r="F29">
-        <v>0.2394834249</v>
+        <v>0.2395934965</v>
       </c>
       <c r="G29">
-        <v>10.79244157346622</v>
+        <v>10.79837474564529</v>
       </c>
     </row>
     <row r="30">
@@ -1287,10 +1287,10 @@
         <v>2070</v>
       </c>
       <c r="F30">
-        <v>0.247062864</v>
+        <v>0.247146558</v>
       </c>
       <c r="G30">
-        <v>10.93552764170816</v>
+        <v>10.93997118967789</v>
       </c>
     </row>
     <row r="31">
@@ -1473,10 +1473,10 @@
         <v>2025</v>
       </c>
       <c r="F36">
-        <v>0.22636467416066</v>
+        <v>0.22636457417066</v>
       </c>
       <c r="G36">
-        <v>48.85316889113529</v>
+        <v>48.85305580547271</v>
       </c>
     </row>
     <row r="37">
@@ -1504,10 +1504,10 @@
         <v>2030</v>
       </c>
       <c r="F37">
-        <v>0.38862891596</v>
+        <v>0.38863177886</v>
       </c>
       <c r="G37">
-        <v>59.82720415210463</v>
+        <v>59.82918087271072</v>
       </c>
     </row>
     <row r="38">
@@ -1535,10 +1535,10 @@
         <v>2035</v>
       </c>
       <c r="F38">
-        <v>0.5636184598</v>
+        <v>0.56362006686</v>
       </c>
       <c r="G38">
-        <v>65.16138560150321</v>
+        <v>65.16267451192468</v>
       </c>
     </row>
     <row r="39">
@@ -1566,10 +1566,10 @@
         <v>2040</v>
       </c>
       <c r="F39">
-        <v>0.77949308993</v>
+        <v>0.77951590872</v>
       </c>
       <c r="G39">
-        <v>69.91458384296031</v>
+        <v>69.91846931308281</v>
       </c>
     </row>
     <row r="40">
@@ -1597,10 +1597,10 @@
         <v>2045</v>
       </c>
       <c r="F40">
-        <v>1.023701776</v>
+        <v>1.0237440666</v>
       </c>
       <c r="G40">
-        <v>72.93051396495194</v>
+        <v>72.93562255239974</v>
       </c>
     </row>
     <row r="41">
@@ -1628,10 +1628,10 @@
         <v>2050</v>
       </c>
       <c r="F41">
-        <v>1.2743087526</v>
+        <v>1.274370807</v>
       </c>
       <c r="G41">
-        <v>75.34540553553762</v>
+        <v>75.35075478753961</v>
       </c>
     </row>
     <row r="42">
@@ -1659,10 +1659,10 @@
         <v>2055</v>
       </c>
       <c r="F42">
-        <v>1.4717368982</v>
+        <v>1.4717976952</v>
       </c>
       <c r="G42">
-        <v>75.93912123792244</v>
+        <v>75.94391525152355</v>
       </c>
     </row>
     <row r="43">
@@ -1690,10 +1690,10 @@
         <v>2060</v>
       </c>
       <c r="F43">
-        <v>1.6087999711</v>
+        <v>1.6089357898</v>
       </c>
       <c r="G43">
-        <v>76.13495948812114</v>
+        <v>76.14487446445108</v>
       </c>
     </row>
     <row r="44">
@@ -1721,10 +1721,10 @@
         <v>2065</v>
       </c>
       <c r="F44">
-        <v>1.6846787203</v>
+        <v>1.6849706732</v>
       </c>
       <c r="G44">
-        <v>75.92089793475967</v>
+        <v>75.94089585247077</v>
       </c>
     </row>
     <row r="45">
@@ -1752,10 +1752,10 @@
         <v>2070</v>
       </c>
       <c r="F45">
-        <v>1.7079055844</v>
+        <v>1.7081303061</v>
       </c>
       <c r="G45">
-        <v>75.5955323485359</v>
+        <v>75.61058704669344</v>
       </c>
     </row>
     <row r="46">
@@ -1938,10 +1938,10 @@
         <v>2025</v>
       </c>
       <c r="F51">
-        <v>0.079963394078</v>
+        <v>0.079964465978</v>
       </c>
       <c r="G51">
-        <v>17.25739765043183</v>
+        <v>17.25759665879908</v>
       </c>
     </row>
     <row r="52">
@@ -1969,10 +1969,10 @@
         <v>2030</v>
       </c>
       <c r="F52">
-        <v>0.110541072721</v>
+        <v>0.110541554021</v>
       </c>
       <c r="G52">
-        <v>17.01716741415248</v>
+        <v>17.01767840209332</v>
       </c>
     </row>
     <row r="53">
@@ -2000,10 +2000,10 @@
         <v>2035</v>
       </c>
       <c r="F53">
-        <v>0.144910215633</v>
+        <v>0.144894624033</v>
       </c>
       <c r="G53">
-        <v>16.75344423922805</v>
+        <v>16.75192524104247</v>
       </c>
     </row>
     <row r="54">
@@ -2031,10 +2031,10 @@
         <v>2040</v>
       </c>
       <c r="F54">
-        <v>0.1743959936069</v>
+        <v>0.1743443772769</v>
       </c>
       <c r="G54">
-        <v>15.64199025548888</v>
+        <v>15.63777192509107</v>
       </c>
     </row>
     <row r="55">
@@ -2062,10 +2062,10 @@
         <v>2045</v>
       </c>
       <c r="F55">
-        <v>0.20692301068</v>
+        <v>0.20683624489</v>
       </c>
       <c r="G55">
-        <v>14.74159943243826</v>
+        <v>14.73584148580672</v>
       </c>
     </row>
     <row r="56">
@@ -2093,10 +2093,10 @@
         <v>2050</v>
       </c>
       <c r="F56">
-        <v>0.23440775206</v>
+        <v>0.2342984621</v>
       </c>
       <c r="G56">
-        <v>13.85970794252116</v>
+        <v>13.85355492123631</v>
       </c>
     </row>
     <row r="57">
@@ -2124,10 +2124,10 @@
         <v>2055</v>
       </c>
       <c r="F57">
-        <v>0.25833968346</v>
+        <v>0.25822905781</v>
       </c>
       <c r="G57">
-        <v>13.3298883562879</v>
+        <v>13.32447098250043</v>
       </c>
     </row>
     <row r="58">
@@ -2155,10 +2155,10 @@
         <v>2060</v>
       </c>
       <c r="F58">
-        <v>0.27749443016</v>
+        <v>0.27722138943</v>
       </c>
       <c r="G58">
-        <v>13.13216532690853</v>
+        <v>13.11984482589701</v>
       </c>
     </row>
     <row r="59">
@@ -2186,10 +2186,10 @@
         <v>2065</v>
       </c>
       <c r="F59">
-        <v>0.29482994542</v>
+        <v>0.29422802953</v>
       </c>
       <c r="G59">
-        <v>13.28666049177412</v>
+        <v>13.26072940188394</v>
       </c>
     </row>
     <row r="60">
@@ -2217,10 +2217,10 @@
         <v>2070</v>
       </c>
       <c r="F60">
-        <v>0.304299436011</v>
+        <v>0.303838390547</v>
       </c>
       <c r="G60">
-        <v>13.46894000975595</v>
+        <v>13.44944176362868</v>
       </c>
     </row>
     <row r="61">
@@ -2406,7 +2406,7 @@
         <v>0.100536</v>
       </c>
       <c r="G66">
-        <v>21.69729974807504</v>
+        <v>21.69725910714346</v>
       </c>
     </row>
     <row r="67">
@@ -2434,10 +2434,10 @@
         <v>2030</v>
       </c>
       <c r="F67">
-        <v>0.0758046</v>
+        <v>0.0757847</v>
       </c>
       <c r="G67">
-        <v>11.66968564000374</v>
+        <v>11.66692167322088</v>
       </c>
     </row>
     <row r="68">
@@ -2465,10 +2465,10 @@
         <v>2035</v>
       </c>
       <c r="F68">
-        <v>0.0620372</v>
+        <v>0.0620355</v>
       </c>
       <c r="G68">
-        <v>7.172280894192201</v>
+        <v>7.172205768338287</v>
       </c>
     </row>
     <row r="69">
@@ -2496,10 +2496,10 @@
         <v>2040</v>
       </c>
       <c r="F69">
-        <v>0.0443286</v>
+        <v>0.0443234</v>
       </c>
       <c r="G69">
-        <v>3.975937261508458</v>
+        <v>3.975575415568146</v>
       </c>
     </row>
     <row r="70">
@@ -2527,10 +2527,10 @@
         <v>2045</v>
       </c>
       <c r="F70">
-        <v>0.0244161</v>
+        <v>0.0244116</v>
       </c>
       <c r="G70">
-        <v>1.739450652295892</v>
+        <v>1.739180036875206</v>
       </c>
     </row>
     <row r="71">
@@ -2713,10 +2713,10 @@
         <v>2025</v>
       </c>
       <c r="F76">
-        <v>0.000395622</v>
+        <v>0.00039562</v>
       </c>
       <c r="G76">
-        <v>0.08537681032949368</v>
+        <v>0.0853761985480605</v>
       </c>
     </row>
     <row r="77">
@@ -2744,10 +2744,10 @@
         <v>2030</v>
       </c>
       <c r="F77">
-        <v>0.000309988</v>
+        <v>0.000309984</v>
       </c>
       <c r="G77">
-        <v>0.04771380914062125</v>
+        <v>0.04771296607486984</v>
       </c>
     </row>
     <row r="78">
@@ -2775,10 +2775,10 @@
         <v>2035</v>
       </c>
       <c r="F78">
-        <v>0.000274571</v>
+        <v>0.000274559</v>
       </c>
       <c r="G78">
-        <v>0.03179875383338335</v>
+        <v>0.03179781821643236</v>
       </c>
     </row>
     <row r="79">
@@ -2806,10 +2806,10 @@
         <v>2040</v>
       </c>
       <c r="F79">
-        <v>0.00021033</v>
+        <v>0.0002103</v>
       </c>
       <c r="G79">
-        <v>0.01887885525953244</v>
+        <v>0.01887663920992312</v>
       </c>
     </row>
     <row r="80">
@@ -2837,10 +2837,10 @@
         <v>2045</v>
       </c>
       <c r="F80">
-        <v>2.02736e-005</v>
+        <v>2.00996e-005</v>
       </c>
       <c r="G80">
-        <v>0.001472214825369675</v>
+        <v>0.001459672247974948</v>
       </c>
     </row>
     <row r="81">
@@ -3147,10 +3147,10 @@
         <v>2025</v>
       </c>
       <c r="F90">
-        <v>0.05609908705</v>
+        <v>0.05609898505</v>
       </c>
       <c r="G90">
-        <v>12.10640741598193</v>
+        <v>12.10635985534977</v>
       </c>
     </row>
     <row r="91">
@@ -3178,10 +3178,10 @@
         <v>2030</v>
       </c>
       <c r="F91">
-        <v>0.07430436589</v>
+        <v>0.07430424888999999</v>
       </c>
       <c r="G91">
-        <v>11.43703734464027</v>
+        <v>11.43696483207925</v>
       </c>
     </row>
     <row r="92">
@@ -3209,10 +3209,10 @@
         <v>2035</v>
       </c>
       <c r="F92">
-        <v>0.09405076529000001</v>
+        <v>0.09405169729</v>
       </c>
       <c r="G92">
-        <v>10.89225421948431</v>
+        <v>10.89251772250898</v>
       </c>
     </row>
     <row r="93">
@@ -3240,10 +3240,10 @@
         <v>2040</v>
       </c>
       <c r="F93">
-        <v>0.11634886271</v>
+        <v>0.11635294271</v>
       </c>
       <c r="G93">
-        <v>10.44327170975753</v>
+        <v>10.44390166690216</v>
       </c>
     </row>
     <row r="94">
@@ -3271,10 +3271,10 @@
         <v>2045</v>
       </c>
       <c r="F94">
-        <v>0.14795214618</v>
+        <v>0.14795270948</v>
       </c>
       <c r="G94">
-        <v>10.74389072742174</v>
+        <v>10.744615019237</v>
       </c>
     </row>
     <row r="95">
@@ -3302,10 +3302,10 @@
         <v>2050</v>
       </c>
       <c r="F95">
-        <v>0.119405442852</v>
+        <v>0.1191571034435</v>
       </c>
       <c r="G95">
-        <v>7.30285036922733</v>
+        <v>7.287808279680634</v>
       </c>
     </row>
     <row r="96">
@@ -3333,10 +3333,10 @@
         <v>2055</v>
       </c>
       <c r="F96">
-        <v>0.08530060102580001</v>
+        <v>0.08508461889290001</v>
       </c>
       <c r="G96">
-        <v>4.617418406608502</v>
+        <v>4.605945272153466</v>
       </c>
     </row>
     <row r="97">
@@ -3364,10 +3364,10 @@
         <v>2060</v>
       </c>
       <c r="F97">
-        <v>0.05179478484153</v>
+        <v>0.05161541208327</v>
       </c>
       <c r="G97">
-        <v>2.605876757941952</v>
+        <v>2.596958084259739</v>
       </c>
     </row>
     <row r="98">
@@ -3395,10 +3395,10 @@
         <v>2065</v>
       </c>
       <c r="F98">
-        <v>0.025251850605065</v>
+        <v>0.025127086519545</v>
       </c>
       <c r="G98">
-        <v>1.221234514981123</v>
+        <v>1.215228932032056</v>
       </c>
     </row>
     <row r="99">
@@ -3426,10 +3426,10 @@
         <v>2070</v>
       </c>
       <c r="F99">
-        <v>0.008739987988814001</v>
+        <v>0.008669918572679999</v>
       </c>
       <c r="G99">
-        <v>0.4178566874111115</v>
+        <v>0.4145113203820782</v>
       </c>
     </row>
     <row r="100">
@@ -3615,7 +3615,7 @@
         <v>0.22635905149066</v>
       </c>
       <c r="G105">
-        <v>48.8491888860634</v>
+        <v>48.849085797526</v>
       </c>
     </row>
     <row r="106">
@@ -3643,10 +3643,10 @@
         <v>2030</v>
       </c>
       <c r="F106">
-        <v>0.38860130086</v>
+        <v>0.38859862247</v>
       </c>
       <c r="G106">
-        <v>59.81408409690433</v>
+        <v>59.81338678980935</v>
       </c>
     </row>
     <row r="107">
@@ -3674,10 +3674,10 @@
         <v>2035</v>
       </c>
       <c r="F107">
-        <v>0.57071809282</v>
+        <v>0.57071602561</v>
       </c>
       <c r="G107">
-        <v>66.09628890830135</v>
+        <v>66.09699348974732</v>
       </c>
     </row>
     <row r="108">
@@ -3705,10 +3705,10 @@
         <v>2040</v>
       </c>
       <c r="F108">
-        <v>0.7881592713</v>
+        <v>0.7881803518</v>
       </c>
       <c r="G108">
-        <v>70.74380642006021</v>
+        <v>70.74748517964279</v>
       </c>
     </row>
     <row r="109">
@@ -3736,10 +3736,10 @@
         <v>2045</v>
       </c>
       <c r="F109">
-        <v>1.0535193497</v>
+        <v>1.053624836</v>
       </c>
       <c r="G109">
-        <v>76.5037687160721</v>
+        <v>76.51629549276382</v>
       </c>
     </row>
     <row r="110">
@@ -3767,10 +3767,10 @@
         <v>2050</v>
       </c>
       <c r="F110">
-        <v>1.4009105279</v>
+        <v>1.4013113926</v>
       </c>
       <c r="G110">
-        <v>85.67984609051355</v>
+        <v>85.70608444039154</v>
       </c>
     </row>
     <row r="111">
@@ -3798,10 +3798,10 @@
         <v>2055</v>
       </c>
       <c r="F111">
-        <v>1.6887084095</v>
+        <v>1.6889871142</v>
       </c>
       <c r="G111">
-        <v>91.41170401673307</v>
+        <v>91.43112250605353</v>
       </c>
     </row>
     <row r="112">
@@ -3829,10 +3829,10 @@
         <v>2060</v>
       </c>
       <c r="F112">
-        <v>1.8966517573</v>
+        <v>1.8968559285</v>
       </c>
       <c r="G112">
-        <v>95.42352086951601</v>
+        <v>95.43768303635729</v>
       </c>
     </row>
     <row r="113">
@@ -3860,10 +3860,10 @@
         <v>2065</v>
       </c>
       <c r="F113">
-        <v>2.0261459355</v>
+        <v>2.0262837361</v>
       </c>
       <c r="G113">
-        <v>97.98883208682543</v>
+        <v>97.99777696866532</v>
       </c>
     </row>
     <row r="114">
@@ -3891,10 +3891,10 @@
         <v>2070</v>
       </c>
       <c r="F114">
-        <v>2.0791509746</v>
+        <v>2.0792260171</v>
       </c>
       <c r="G114">
-        <v>99.40369940849688</v>
+        <v>99.40839864825583</v>
       </c>
     </row>
     <row r="115">
@@ -4077,10 +4077,10 @@
         <v>2025</v>
       </c>
       <c r="F120">
-        <v>0.079945678678</v>
+        <v>0.079946760578</v>
       </c>
       <c r="G120">
-        <v>17.25259729022717</v>
+        <v>17.25279435918706</v>
       </c>
     </row>
     <row r="121">
@@ -4108,10 +4108,10 @@
         <v>2030</v>
       </c>
       <c r="F121">
-        <v>0.110516183421</v>
+        <v>0.110517878921</v>
       </c>
       <c r="G121">
-        <v>17.01081358858887</v>
+        <v>17.01099349522635</v>
       </c>
     </row>
     <row r="122">
@@ -4139,10 +4139,10 @@
         <v>2035</v>
       </c>
       <c r="F122">
-        <v>0.142652025633</v>
+        <v>0.142639440933</v>
       </c>
       <c r="G122">
-        <v>16.52088766452851</v>
+        <v>16.51966613107228</v>
       </c>
     </row>
     <row r="123">
@@ -4170,10 +4170,10 @@
         <v>2040</v>
       </c>
       <c r="F123">
-        <v>0.1702043037569</v>
+        <v>0.1701585384169</v>
       </c>
       <c r="G123">
-        <v>15.27724250071796</v>
+        <v>15.27352039079251</v>
       </c>
     </row>
     <row r="124">
@@ -4201,10 +4201,10 @@
         <v>2045</v>
       </c>
       <c r="F124">
-        <v>0.158721766341</v>
+        <v>0.158549904638</v>
       </c>
       <c r="G124">
-        <v>11.52595185443541</v>
+        <v>11.5142040497902</v>
       </c>
     </row>
     <row r="125">
@@ -4232,10 +4232,10 @@
         <v>2050</v>
       </c>
       <c r="F125">
-        <v>0.11473660207832</v>
+        <v>0.114551236510739</v>
       </c>
       <c r="G125">
-        <v>7.017303540259127</v>
+        <v>7.006107279927824</v>
       </c>
     </row>
     <row r="126">
@@ -4263,10 +4263,10 @@
         <v>2055</v>
       </c>
       <c r="F126">
-        <v>0.073356627894942</v>
+        <v>0.07320637955214</v>
       </c>
       <c r="G126">
-        <v>3.970877576658425</v>
+        <v>3.962932221793007</v>
       </c>
     </row>
     <row r="127">
@@ -4294,10 +4294,10 @@
         <v>2060</v>
       </c>
       <c r="F127">
-        <v>0.039167978908808</v>
+        <v>0.039062166257405</v>
       </c>
       <c r="G127">
-        <v>1.970602372542037</v>
+        <v>1.965358879382974</v>
       </c>
     </row>
     <row r="128">
@@ -4325,10 +4325,10 @@
         <v>2065</v>
       </c>
       <c r="F128">
-        <v>0.016333701606395</v>
+        <v>0.016272546104117</v>
       </c>
       <c r="G128">
-        <v>0.7899333981934444</v>
+        <v>0.786994099302627</v>
       </c>
     </row>
     <row r="129">
@@ -4356,10 +4356,10 @@
         <v>2070</v>
       </c>
       <c r="F129">
-        <v>0.003732374341318</v>
+        <v>0.003704015008631</v>
       </c>
       <c r="G129">
-        <v>0.1784439040920242</v>
+        <v>0.1770900313620904</v>
       </c>
     </row>
     <row r="130">
@@ -4545,7 +4545,7 @@
         <v>0.100584</v>
       </c>
       <c r="G135">
-        <v>21.70642959739801</v>
+        <v>21.7063837893891</v>
       </c>
     </row>
     <row r="136">
@@ -4573,10 +4573,10 @@
         <v>2030</v>
       </c>
       <c r="F136">
-        <v>0.07595010000000001</v>
+        <v>0.0759543</v>
       </c>
       <c r="G136">
-        <v>11.6903511607259</v>
+        <v>11.69094191681018</v>
       </c>
     </row>
     <row r="137">
@@ -4604,10 +4604,10 @@
         <v>2035</v>
       </c>
       <c r="F137">
-        <v>0.0557692</v>
+        <v>0.0557706</v>
       </c>
       <c r="G137">
-        <v>6.458770453852456</v>
+        <v>6.459024838454985</v>
       </c>
     </row>
     <row r="138">
@@ -4635,10 +4635,10 @@
         <v>2040</v>
       </c>
       <c r="F138">
-        <v>0.0391808</v>
+        <v>0.0391733</v>
       </c>
       <c r="G138">
-        <v>3.516800514204768</v>
+        <v>3.516216123452599</v>
       </c>
     </row>
     <row r="139">
@@ -4666,10 +4666,10 @@
         <v>2045</v>
       </c>
       <c r="F139">
-        <v>0.0168681</v>
+        <v>0.0168465</v>
       </c>
       <c r="G139">
-        <v>1.224916487245394</v>
+        <v>1.223425765961012</v>
       </c>
     </row>
   </sheetData>
